--- a/biology/Botanique/Square_du_Chanoine-Viollet/Square_du_Chanoine-Viollet.xlsx
+++ b/biology/Botanique/Square_du_Chanoine-Viollet/Square_du_Chanoine-Viollet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square du Chanoine-Viollet est un espace vert situé dans le quartier de Plaisance du 14e arrondissement de Paris. 
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square du Chanoine-Viollet est situé entre les rues Didot, du Moulin-Vert, Olivier-Noyer et Hippolyte-Maindron.
 Il est desservi par la ligne 4 à la station Alésia et par la ligne 13 à la station Pernety.
@@ -544,7 +558,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce square, anciennement appelé « square Didot », a été inauguré le 1er avril 1939, alors que les premières propositions d'aménagement dataient de 1922. Le square est en partie construit sur l'emplacement d'anciens immeubles. Le jardin doit son nom à l’abbé Viollet (1875-1956), qui a fondé les Œuvres du Moulin-Vert (logements économiques, colonies de vacances, secours à l’enfance…), pour venir en aide aux personnes en difficulté dans le 14e arrondissement à proximité du square. Au printemps 1944, il accueillit clandestinement chez lui, rue de Gergovie, le Conseil national de la Résistance.
 Il a connu un agrandissement en 1994 et une rénovation en 2004, et s'étend depuis lors une surface de 3 300 m2 environ. Les éléments subsistants de l'époque de construction sont les poteaux marquant l'entrée ainsi que l'abri de gardien.
@@ -576,7 +592,9 @@
           <t>Aménagements</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Trois parties peuvent y être distinguées : une aire de détente et de jeux pour les enfants, un espace planté doté d'une pelouse, et un jardin partagé dans la partie est.
 			Autre vue de l'abri de gardien.
